--- a/test_Projet_synthse.xlsx
+++ b/test_Projet_synthse.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afsanehsheikhmiri/Documents/Afsaneh/Graduation_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afsanehsheikhmiri/Documents/Afsaneh/git_graduation_project/projet_synthese_HIV2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="graph" sheetId="2" r:id="rId1"/>
@@ -3118,12 +3118,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-439929744"/>
-        <c:axId val="-439972784"/>
-        <c:axId val="-439591920"/>
+        <c:axId val="-640786880"/>
+        <c:axId val="-640816320"/>
+        <c:axId val="-641449712"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-439929744"/>
+        <c:axId val="-640786880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,7 +3166,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-439972784"/>
+        <c:crossAx val="-640816320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3174,7 +3174,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-439972784"/>
+        <c:axId val="-640816320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3224,12 +3224,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-439929744"/>
+        <c:crossAx val="-640786880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-439591920"/>
+        <c:axId val="-641449712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,7 +3271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-439972784"/>
+        <c:crossAx val="-640816320"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -6548,12 +6548,12 @@
             </c:spPr>
           </c:bandFmt>
         </c:bandFmts>
-        <c:axId val="-356470912"/>
-        <c:axId val="-356468864"/>
-        <c:axId val="-356490240"/>
+        <c:axId val="-613777840"/>
+        <c:axId val="-613775776"/>
+        <c:axId val="-613773296"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="-356470912"/>
+        <c:axId val="-613777840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6596,7 +6596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-356468864"/>
+        <c:crossAx val="-613775776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6604,7 +6604,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-356468864"/>
+        <c:axId val="-613775776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6654,12 +6654,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-356470912"/>
+        <c:crossAx val="-613777840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-356490240"/>
+        <c:axId val="-613773296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6701,7 +6701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-356468864"/>
+        <c:crossAx val="-613775776"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -6714,6 +6714,98 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -6824,15 +6916,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>279400</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7121,7 +7213,7 @@
   <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8717,25 +8809,25 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>233.33</v>
       </c>
       <c r="D28" t="s">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>166.67</v>
       </c>
       <c r="G28" t="s">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="J28" t="s">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>7</v>
+        <v>233.33</v>
       </c>
       <c r="M28" t="s">
         <v>0</v>
@@ -8749,25 +8841,25 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>325</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="G29" t="s">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="J29" t="s">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>13</v>
+        <v>325</v>
       </c>
       <c r="M29" t="s">
         <v>1</v>
@@ -8781,25 +8873,25 @@
         <v>2</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>166.67</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
         <v>2</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>133.33000000000001</v>
       </c>
       <c r="J30" t="s">
         <v>2</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="M30" t="s">
         <v>2</v>
@@ -8813,25 +8905,25 @@
         <v>3</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="J31" t="s">
         <v>3</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="M31" t="s">
         <v>3</v>
@@ -8845,7 +8937,7 @@
         <v>4</v>
       </c>
       <c r="B32">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -8877,25 +8969,25 @@
         <v>5</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="J33" t="s">
         <v>5</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M33" t="s">
         <v>5</v>

--- a/test_Projet_synthse.xlsx
+++ b/test_Projet_synthse.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="graph" sheetId="2" r:id="rId1"/>
@@ -335,67 +335,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.40808691021949E-7</c:v>
+                  <c:v>0.00112862709225101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.82417124319134E-6</c:v>
+                  <c:v>0.00584262816816507</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.71413097455842E-5</c:v>
+                  <c:v>0.023781802961378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000376209030750337</c:v>
+                  <c:v>0.0761132131507761</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00194754272272169</c:v>
+                  <c:v>0.191537620267771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00792726765379266</c:v>
+                  <c:v>0.378989231012231</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0253710710502587</c:v>
+                  <c:v>0.589628413310525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0638458734225903</c:v>
+                  <c:v>0.721287969198755</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.126329743670744</c:v>
+                  <c:v>0.693773528170056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.196542804436842</c:v>
+                  <c:v>0.524693292604347</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.240429323066252</c:v>
+                  <c:v>0.312012541803138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.231257842723352</c:v>
+                  <c:v>0.145887251342056</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.174897764201449</c:v>
+                  <c:v>0.0536341476855125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.104004180601046</c:v>
+                  <c:v>0.0155040148808869</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0486290837806852</c:v>
+                  <c:v>0.00352391740670851</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0178780492285042</c:v>
+                  <c:v>0.000629775870078948</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00516800496029562</c:v>
+                  <c:v>8.84962898581858E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0011746391355695</c:v>
+                  <c:v>9.77783854912453E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.000209925290026316</c:v>
+                  <c:v>8.49453111794214E-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.94987632860619E-5</c:v>
+                  <c:v>5.80249416825657E-8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.25927951637484E-6</c:v>
+                  <c:v>3.11651172389657E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,67 +502,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.27753983978038E-7</c:v>
+                  <c:v>0.000991140071034214</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.99139436140081E-6</c:v>
+                  <c:v>0.00562210703600838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.57960959225899E-5</c:v>
+                  <c:v>0.025075057403159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000330380023678071</c:v>
+                  <c:v>0.0879353534434162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00187403567866946</c:v>
+                  <c:v>0.242473254948625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00835835246771966</c:v>
+                  <c:v>0.525705986650358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0293117844811387</c:v>
+                  <c:v>0.896191363442072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0808244183162083</c:v>
+                  <c:v>1.201260888542257</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.175235328883453</c:v>
+                  <c:v>1.26605528799998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.298730454480691</c:v>
+                  <c:v>1.049172157915023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.400420296180752</c:v>
+                  <c:v>0.683627609335198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.422018429333326</c:v>
+                  <c:v>0.350244385606151</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.349724052638341</c:v>
+                  <c:v>0.141091718071271</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.227875869778399</c:v>
+                  <c:v>0.0446900265649872</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.116748128535384</c:v>
+                  <c:v>0.0111300843345828</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0470305726904236</c:v>
+                  <c:v>0.00217954102802384</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0148966755216624</c:v>
+                  <c:v>0.000335591068254348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0037100281115276</c:v>
+                  <c:v>4.06288462612794E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.000726513676007946</c:v>
+                  <c:v>3.86756247114346E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.000111863689418116</c:v>
+                  <c:v>2.89480248202251E-7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.35429487537598E-5</c:v>
+                  <c:v>1.70364572013925E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,67 +669,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.53076849126416E-7</c:v>
+                  <c:v>0.000771457994633914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.23583626216686E-6</c:v>
+                  <c:v>0.00479493425566747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.25311493699205E-5</c:v>
+                  <c:v>0.0234332098105269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000257152664877971</c:v>
+                  <c:v>0.090045011220652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00159831141855582</c:v>
+                  <c:v>0.27206099582171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0078110699368423</c:v>
+                  <c:v>0.646326051697185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0300150037402173</c:v>
+                  <c:v>1.207301641288297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0906869986072367</c:v>
+                  <c:v>1.77320387573524</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.215442017232395</c:v>
+                  <c:v>2.047765887359776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.402433880429432</c:v>
+                  <c:v>1.859433656244206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.591067958578413</c:v>
+                  <c:v>1.327577313726468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.682588629119925</c:v>
+                  <c:v>0.745276982596668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.619811218748068</c:v>
+                  <c:v>0.328968523822427</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.442525771242156</c:v>
+                  <c:v>0.114174662063308</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.248425660865556</c:v>
+                  <c:v>0.0311575912073729</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.109656174607476</c:v>
+                  <c:v>0.00668554423227194</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0380582206877693</c:v>
+                  <c:v>0.0011279462619337</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.010385863735791</c:v>
+                  <c:v>0.000149630043936326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00222851474409065</c:v>
+                  <c:v>1.56073061300531E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.000375982087311233</c:v>
+                  <c:v>1.2800173188246E-6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.98766813121088E-5</c:v>
+                  <c:v>8.25434266480565E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,67 +836,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.32709942227434E-7</c:v>
+                  <c:v>0.000532209005634704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.85927605785237E-6</c:v>
+                  <c:v>0.00362459001583296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.04815606072047E-5</c:v>
+                  <c:v>0.0194094983931089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000177403001878235</c:v>
+                  <c:v>0.0817237873954804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00120819667194432</c:v>
+                  <c:v>0.270558641762804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00646983279770296</c:v>
+                  <c:v>0.704292536485386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0272412624651601</c:v>
+                  <c:v>1.441529430771571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0901862139209346</c:v>
+                  <c:v>2.319918308236748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.234764178828462</c:v>
+                  <c:v>2.935625302814977</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48050981025719</c:v>
+                  <c:v>2.920836880811238</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.773306102745583</c:v>
+                  <c:v>2.285034368023212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.978541767604992</c:v>
+                  <c:v>1.405584374292601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.973612293603746</c:v>
+                  <c:v>0.679829264900912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.761678122674404</c:v>
+                  <c:v>0.258536308008473</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4685281247642</c:v>
+                  <c:v>0.0773075625833739</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.226609754966971</c:v>
+                  <c:v>0.0181761195311547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0861787693361577</c:v>
+                  <c:v>0.003360153448371</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0257691875277913</c:v>
+                  <c:v>0.000488422658141833</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00605870651038492</c:v>
+                  <c:v>5.58227524263671E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001120051149457</c:v>
+                  <c:v>5.01655341598458E-6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.000162807552713944</c:v>
+                  <c:v>3.54469103604428E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,67 +1003,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.16804008199298E-8</c:v>
+                  <c:v>0.000325420448962401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.46877729061996E-7</c:v>
+                  <c:v>0.0024284424090419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.14292930394063E-5</c:v>
+                  <c:v>0.0142491687097998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000108473482987467</c:v>
+                  <c:v>0.065740045426659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000809480803013967</c:v>
+                  <c:v>0.238478495119011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00474972290326659</c:v>
+                  <c:v>0.680216553348021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.021913348475553</c:v>
+                  <c:v>1.525541132270694</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0794928317063371</c:v>
+                  <c:v>2.690167975347858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.226738851116007</c:v>
+                  <c:v>3.730041178979966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.508513710756898</c:v>
+                  <c:v>4.066554580278437</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.896722658449286</c:v>
+                  <c:v>3.485927386400646</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.243347059659989</c:v>
+                  <c:v>2.349572325853939</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.355518193426145</c:v>
+                  <c:v>1.245196959490126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.161975795466882</c:v>
+                  <c:v>0.518878930510462</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.783190775284646</c:v>
+                  <c:v>0.170009336385685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.415065653163375</c:v>
+                  <c:v>0.0437984013971186</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.172959643503487</c:v>
+                  <c:v>0.00887201971170467</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0566697787952284</c:v>
+                  <c:v>0.00141307589491243</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0145994671323729</c:v>
+                  <c:v>0.000176964938412979</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00295733990390156</c:v>
+                  <c:v>1.74255992458855E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.000471025298304142</c:v>
+                  <c:v>1.34917090138297E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,67 +1170,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.54087675492409E-8</c:v>
+                  <c:v>0.000176360022882907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.27402061606206E-7</c:v>
+                  <c:v>0.00144208019700354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.65286191091552E-6</c:v>
+                  <c:v>0.00927165858344477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.87866742943022E-5</c:v>
+                  <c:v>0.0468709979259471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000480693399001179</c:v>
+                  <c:v>0.186307235084163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00309055286114826</c:v>
+                  <c:v>0.582282841356658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0156236659753157</c:v>
+                  <c:v>1.430925475656468</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0621024116947209</c:v>
+                  <c:v>2.764895936929639</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.194094280452219</c:v>
+                  <c:v>4.20067726384192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.476975158552156</c:v>
+                  <c:v>5.018091700846428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.921631978976546</c:v>
+                  <c:v>4.713425227056487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.400225754613974</c:v>
+                  <c:v>3.481075172137091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.672697233615476</c:v>
+                  <c:v>2.02147759852392</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.571141742352163</c:v>
+                  <c:v>0.923003218670332</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.160358390712364</c:v>
+                  <c:v>0.331372336009885</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67382586617464</c:v>
+                  <c:v>0.0935422979504756</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.307667739556777</c:v>
+                  <c:v>0.0207624486357606</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.110457445336628</c:v>
+                  <c:v>0.00362349660639026</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0311807659834919</c:v>
+                  <c:v>0.00049722836793397</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0069208162119202</c:v>
+                  <c:v>5.36491306156956E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00120783220213009</c:v>
+                  <c:v>4.55143380112109E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,67 +1339,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9.27710984327542E-9</c:v>
+                  <c:v>8.47126248776518E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.70990510624344E-7</c:v>
+                  <c:v>0.00075900336846705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.47805003460275E-6</c:v>
+                  <c:v>0.0053470964645854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.82375416258839E-5</c:v>
+                  <c:v>0.0296190473625406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00025300112282235</c:v>
+                  <c:v>0.129003919220149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00178236548819513</c:v>
+                  <c:v>0.44178755157073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00987301578751353</c:v>
+                  <c:v>1.189605040074005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0430013064067162</c:v>
+                  <c:v>2.518667672455256</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.147262517190243</c:v>
+                  <c:v>4.19293076957204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.396535013358001</c:v>
+                  <c:v>5.488368547455182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.839555890818418</c:v>
+                  <c:v>5.648688074318482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.397643589857347</c:v>
+                  <c:v>4.5712047153475</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.829456182485061</c:v>
+                  <c:v>2.908656929881319</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.882896024772827</c:v>
+                  <c:v>1.455234829485218</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.523734905115833</c:v>
+                  <c:v>0.572469577775029</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96955230996044</c:v>
+                  <c:v>0.17707224577641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.485078276495073</c:v>
+                  <c:v>0.04306528541306</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.190823192591676</c:v>
+                  <c:v>0.00823536619963913</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0590240819254701</c:v>
+                  <c:v>0.00123827542138557</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0143550951376867</c:v>
+                  <c:v>0.000146396381078433</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00274512206654638</c:v>
+                  <c:v>1.36088736154574E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,67 +1508,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.00216448607491E-9</c:v>
+                  <c:v>3.60652392004635E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.06317483509353E-8</c:v>
+                  <c:v>0.000354071262327107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.62818555046318E-7</c:v>
+                  <c:v>0.00273319925074424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.20217464001545E-5</c:v>
+                  <c:v>0.0165893992024905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000118023754109036</c:v>
+                  <c:v>0.0791714819707559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000911066416914746</c:v>
+                  <c:v>0.297088363874825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00552979973416352</c:v>
+                  <c:v>0.87655921767825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.026390493990252</c:v>
+                  <c:v>2.033553634824982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0990294546249415</c:v>
+                  <c:v>3.709443435859157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29218640589275</c:v>
+                  <c:v>5.320355178177251</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.677851211608327</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.236481145286386</c:v>
+                  <c:v>5.320355178177251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.773451726059084</c:v>
+                  <c:v>3.709443435859157</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0</c:v>
+                  <c:v>2.033553634824982</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.773451726059084</c:v>
+                  <c:v>0.87655921767825</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.236481145286386</c:v>
+                  <c:v>0.297088363874825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.677851211608327</c:v>
+                  <c:v>0.0791714819707559</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.29218640589275</c:v>
+                  <c:v>0.0165893992024905</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0990294546249415</c:v>
+                  <c:v>0.00273319925074424</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.026390493990252</c:v>
+                  <c:v>0.000354071262327107</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00552979973416352</c:v>
+                  <c:v>3.60652392004635E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1677,67 +1677,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>8.61090808240006E-10</c:v>
+                  <c:v>1.36088736154574E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.90555224140204E-8</c:v>
+                  <c:v>0.000146396381078433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3156716595191E-7</c:v>
+                  <c:v>0.00123827542138557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.53629120515246E-6</c:v>
+                  <c:v>0.00823536619963913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.87987936928109E-5</c:v>
+                  <c:v>0.04306528541306</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00041275847379519</c:v>
+                  <c:v>0.17707224577641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00274512206654638</c:v>
+                  <c:v>0.572469577775029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0143550951376867</c:v>
+                  <c:v>1.455234829485218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0590240819254701</c:v>
+                  <c:v>2.908656929881319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.190823192591676</c:v>
+                  <c:v>4.5712047153475</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.485078276495073</c:v>
+                  <c:v>5.648688074318482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96955230996044</c:v>
+                  <c:v>5.488368547455182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.523734905115833</c:v>
+                  <c:v>4.19293076957204</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.882896024772827</c:v>
+                  <c:v>2.518667672455256</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.829456182485061</c:v>
+                  <c:v>1.189605040074005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.397643589857347</c:v>
+                  <c:v>0.44178755157073</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.839555890818418</c:v>
+                  <c:v>0.129003919220149</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.396535013358001</c:v>
+                  <c:v>0.0296190473625406</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.147262517190243</c:v>
+                  <c:v>0.0053470964645854</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0430013064067162</c:v>
+                  <c:v>0.00075900336846705</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00987301578751353</c:v>
+                  <c:v>8.47126248776518E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1846,67 +1846,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.18905215680943E-10</c:v>
+                  <c:v>4.55143380112109E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.30804154615034E-9</c:v>
+                  <c:v>5.36491306156956E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.01202506509738E-7</c:v>
+                  <c:v>0.00049722836793397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5171446003737E-6</c:v>
+                  <c:v>0.00362349660639026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.78830435385652E-5</c:v>
+                  <c:v>0.0207624486357606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000165742789311323</c:v>
+                  <c:v>0.0935422979504756</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00120783220213009</c:v>
+                  <c:v>0.331372336009885</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0069208162119202</c:v>
+                  <c:v>0.923003218670332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0311807659834919</c:v>
+                  <c:v>2.02147759852392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.110457445336628</c:v>
+                  <c:v>3.481075172137091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.307667739556777</c:v>
+                  <c:v>4.713425227056487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67382586617464</c:v>
+                  <c:v>5.018091700846428</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.160358390712364</c:v>
+                  <c:v>4.20067726384192</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.571141742352163</c:v>
+                  <c:v>2.764895936929639</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.672697233615476</c:v>
+                  <c:v>1.430925475656468</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.400225754613974</c:v>
+                  <c:v>0.582282841356658</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.921631978976546</c:v>
+                  <c:v>0.186307235084163</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.476975158552156</c:v>
+                  <c:v>0.0468709979259471</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.194094280452219</c:v>
+                  <c:v>0.00927165858344477</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0621024116947209</c:v>
+                  <c:v>0.00144208019700354</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0156236659753157</c:v>
+                  <c:v>0.000176360022882907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,67 +2015,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.93237344545846E-11</c:v>
+                  <c:v>1.34917090138297E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.31051034337578E-9</c:v>
+                  <c:v>1.74255992458855E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.73781252772008E-8</c:v>
+                  <c:v>0.000176964938412979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.49723633794325E-7</c:v>
+                  <c:v>0.00141307589491243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.80853308196185E-6</c:v>
+                  <c:v>0.00887201971170467</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.89883128043264E-5</c:v>
+                  <c:v>0.0437984013971186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000471025298304142</c:v>
+                  <c:v>0.170009336385685</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00295733990390156</c:v>
+                  <c:v>0.518878930510462</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0145994671323729</c:v>
+                  <c:v>1.245196959490126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0566697787952284</c:v>
+                  <c:v>2.349572325853939</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.172959643503487</c:v>
+                  <c:v>3.485927386400646</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.415065653163375</c:v>
+                  <c:v>4.066554580278437</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.783190775284646</c:v>
+                  <c:v>3.730041178979966</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.161975795466882</c:v>
+                  <c:v>2.690167975347858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.355518193426145</c:v>
+                  <c:v>1.525541132270694</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.243347059659989</c:v>
+                  <c:v>0.680216553348021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.896722658449286</c:v>
+                  <c:v>0.238478495119011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.508513710756898</c:v>
+                  <c:v>0.065740045426659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.226738851116007</c:v>
+                  <c:v>0.0142491687097998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0794928317063371</c:v>
+                  <c:v>0.0024284424090419</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.021913348475553</c:v>
+                  <c:v>0.000325420448962401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,67 +2184,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9.8502777922063E-12</c:v>
+                  <c:v>3.54469103604428E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.86773672707104E-10</c:v>
+                  <c:v>5.01655341598458E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5646084834467E-9</c:v>
+                  <c:v>5.58227524263671E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.18156367868143E-7</c:v>
+                  <c:v>0.000488422658141833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.67218447199486E-6</c:v>
+                  <c:v>0.003360153448371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.86075841421224E-5</c:v>
+                  <c:v>0.0181761195311547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000162807552713944</c:v>
+                  <c:v>0.0773075625833739</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001120051149457</c:v>
+                  <c:v>0.258536308008473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00605870651038492</c:v>
+                  <c:v>0.679829264900912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0257691875277913</c:v>
+                  <c:v>1.405584374292601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0861787693361577</c:v>
+                  <c:v>2.285034368023212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.226609754966971</c:v>
+                  <c:v>2.920836880811238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4685281247642</c:v>
+                  <c:v>2.935625302814977</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.761678122674404</c:v>
+                  <c:v>2.319918308236748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.973612293603746</c:v>
+                  <c:v>1.441529430771571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.978541767604992</c:v>
+                  <c:v>0.704292536485386</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.773306102745583</c:v>
+                  <c:v>0.270558641762804</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.48050981025719</c:v>
+                  <c:v>0.0817237873954804</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.234764178828462</c:v>
+                  <c:v>0.0194094983931089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0901862139209346</c:v>
+                  <c:v>0.00362459001583296</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0272412624651601</c:v>
+                  <c:v>0.000532209005634704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2354,67 +2354,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.7435471311286E-12</c:v>
+                  <c:v>8.25434266480565E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.56199750188654E-11</c:v>
+                  <c:v>1.2800173188246E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.39510417586834E-9</c:v>
+                  <c:v>1.56073061300531E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.75144755493522E-8</c:v>
+                  <c:v>0.000149630043936326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.26672439608199E-7</c:v>
+                  <c:v>0.0011279462619337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.20243537668436E-6</c:v>
+                  <c:v>0.00668554423227194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.98766813121088E-5</c:v>
+                  <c:v>0.0311575912073729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000375982087311233</c:v>
+                  <c:v>0.114174662063308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00222851474409065</c:v>
+                  <c:v>0.328968523822427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.010385863735791</c:v>
+                  <c:v>0.745276982596668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0380582206877693</c:v>
+                  <c:v>1.327577313726468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.109656174607476</c:v>
+                  <c:v>1.859433656244206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.248425660865556</c:v>
+                  <c:v>2.047765887359776</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.442525771242156</c:v>
+                  <c:v>1.77320387573524</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.619811218748068</c:v>
+                  <c:v>1.207301641288297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.682588629119925</c:v>
+                  <c:v>0.646326051697185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.591067958578413</c:v>
+                  <c:v>0.27206099582171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.402433880429432</c:v>
+                  <c:v>0.090045011220652</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.215442017232395</c:v>
+                  <c:v>0.0234332098105269</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0906869986072367</c:v>
+                  <c:v>0.00479493425566747</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0300150037402173</c:v>
+                  <c:v>0.000771457994633914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2524,67 +2524,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.73534172688585E-13</c:v>
+                  <c:v>1.70364572013925E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.56125687768565E-12</c:v>
+                  <c:v>2.89480248202251E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.62782919569468E-10</c:v>
+                  <c:v>3.86756247114346E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.67881906713082E-9</c:v>
+                  <c:v>4.06288462612794E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.64934160674169E-8</c:v>
+                  <c:v>0.000335591068254348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.28918749038115E-6</c:v>
+                  <c:v>0.00217954102802384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.35429487537598E-5</c:v>
+                  <c:v>0.0111300843345828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000111863689418116</c:v>
+                  <c:v>0.0446900265649872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000726513676007946</c:v>
+                  <c:v>0.141091718071271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0037100281115276</c:v>
+                  <c:v>0.350244385606151</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0148966755216624</c:v>
+                  <c:v>0.683627609335198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0470305726904236</c:v>
+                  <c:v>1.049172157915023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.116748128535384</c:v>
+                  <c:v>1.26605528799998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.227875869778399</c:v>
+                  <c:v>1.201260888542257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.349724052638341</c:v>
+                  <c:v>0.896191363442072</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.422018429333326</c:v>
+                  <c:v>0.525705986650358</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.400420296180752</c:v>
+                  <c:v>0.242473254948625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.298730454480691</c:v>
+                  <c:v>0.0879353534434162</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.175235328883453</c:v>
+                  <c:v>0.025075057403159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0808244183162083</c:v>
+                  <c:v>0.00562210703600838</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0293117844811387</c:v>
+                  <c:v>0.000991140071034214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2694,67 +2694,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.80348909381685E-14</c:v>
+                  <c:v>3.11651172389657E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.45677295087308E-12</c:v>
+                  <c:v>5.80249416825657E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.38712808348453E-11</c:v>
+                  <c:v>8.49453111794214E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.03883724129886E-9</c:v>
+                  <c:v>9.77783854912453E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.93416472275219E-8</c:v>
+                  <c:v>8.84962898581858E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.83151037264738E-7</c:v>
+                  <c:v>0.000629775870078948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.25927951637484E-6</c:v>
+                  <c:v>0.00352391740670851</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.94987632860619E-5</c:v>
+                  <c:v>0.0155040148808869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000209925290026316</c:v>
+                  <c:v>0.0536341476855125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0011746391355695</c:v>
+                  <c:v>0.145887251342056</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00516800496029562</c:v>
+                  <c:v>0.312012541803138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0178780492285042</c:v>
+                  <c:v>0.524693292604347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0486290837806852</c:v>
+                  <c:v>0.693773528170056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.104004180601046</c:v>
+                  <c:v>0.721287969198755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.174897764201449</c:v>
+                  <c:v>0.589628413310525</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.231257842723352</c:v>
+                  <c:v>0.378989231012231</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.240429323066252</c:v>
+                  <c:v>0.191537620267771</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.196542804436842</c:v>
+                  <c:v>0.0761132131507761</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.126329743670744</c:v>
+                  <c:v>0.023781802961378</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0638458734225903</c:v>
+                  <c:v>0.00584262816816507</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0253710710502587</c:v>
+                  <c:v>0.00112862709225101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,67 +2864,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.68754495494368E-15</c:v>
+                  <c:v>5.05301897586047E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.96725853113621E-13</c:v>
+                  <c:v>1.03086827576304E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.49166619730347E-12</c:v>
+                  <c:v>1.65361411845916E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.68433965862016E-10</c:v>
+                  <c:v>2.08566195826983E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.43622758587681E-9</c:v>
+                  <c:v>2.06838995216955E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.51204706153054E-8</c:v>
+                  <c:v>0.000161287113763514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.95220652756611E-7</c:v>
+                  <c:v>0.000988884734013118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.89463317389851E-6</c:v>
+                  <c:v>0.00476727742737242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.37623712545046E-5</c:v>
+                  <c:v>0.0180706565130855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000329628244671039</c:v>
+                  <c:v>0.0538587397576356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00158909247579081</c:v>
+                  <c:v>0.126216808556997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00602355217102849</c:v>
+                  <c:v>0.232571746132887</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0179529132525452</c:v>
+                  <c:v>0.33695776100667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0420722695189991</c:v>
+                  <c:v>0.383859881840118</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0775239153776289</c:v>
+                  <c:v>0.343833935474876</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11231925366889</c:v>
+                  <c:v>0.242160610233503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.127953293946706</c:v>
+                  <c:v>0.134102544353821</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.114611311824959</c:v>
+                  <c:v>0.0583914533326603</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0807202034111676</c:v>
+                  <c:v>0.019991266234901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0447008481179403</c:v>
+                  <c:v>0.00538158336797674</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0194638177775534</c:v>
+                  <c:v>0.00113909145331545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3422,98 +3422,6 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="7"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="8"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="9"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3765,67 +3673,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.40808691021949E-7</c:v>
+                  <c:v>0.00112862709225101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.82417124319134E-6</c:v>
+                  <c:v>0.00584262816816507</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.71413097455842E-5</c:v>
+                  <c:v>0.023781802961378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000376209030750337</c:v>
+                  <c:v>0.0761132131507761</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00194754272272169</c:v>
+                  <c:v>0.191537620267771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00792726765379266</c:v>
+                  <c:v>0.378989231012231</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0253710710502587</c:v>
+                  <c:v>0.589628413310525</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0638458734225903</c:v>
+                  <c:v>0.721287969198755</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.126329743670744</c:v>
+                  <c:v>0.693773528170056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.196542804436842</c:v>
+                  <c:v>0.524693292604347</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.240429323066252</c:v>
+                  <c:v>0.312012541803138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.231257842723352</c:v>
+                  <c:v>0.145887251342056</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.174897764201449</c:v>
+                  <c:v>0.0536341476855125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.104004180601046</c:v>
+                  <c:v>0.0155040148808869</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0486290837806852</c:v>
+                  <c:v>0.00352391740670851</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0178780492285042</c:v>
+                  <c:v>0.000629775870078948</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00516800496029562</c:v>
+                  <c:v>8.84962898581858E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0011746391355695</c:v>
+                  <c:v>9.77783854912453E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.000209925290026316</c:v>
+                  <c:v>8.49453111794214E-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.94987632860619E-5</c:v>
+                  <c:v>5.80249416825657E-8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.25927951637484E-6</c:v>
+                  <c:v>3.11651172389657E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3932,67 +3840,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.27753983978038E-7</c:v>
+                  <c:v>0.000991140071034214</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.99139436140081E-6</c:v>
+                  <c:v>0.00562210703600838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.57960959225899E-5</c:v>
+                  <c:v>0.025075057403159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000330380023678071</c:v>
+                  <c:v>0.0879353534434162</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00187403567866946</c:v>
+                  <c:v>0.242473254948625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00835835246771966</c:v>
+                  <c:v>0.525705986650358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0293117844811387</c:v>
+                  <c:v>0.896191363442072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0808244183162083</c:v>
+                  <c:v>1.201260888542257</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.175235328883453</c:v>
+                  <c:v>1.26605528799998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.298730454480691</c:v>
+                  <c:v>1.049172157915023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.400420296180752</c:v>
+                  <c:v>0.683627609335198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.422018429333326</c:v>
+                  <c:v>0.350244385606151</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.349724052638341</c:v>
+                  <c:v>0.141091718071271</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.227875869778399</c:v>
+                  <c:v>0.0446900265649872</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.116748128535384</c:v>
+                  <c:v>0.0111300843345828</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0470305726904236</c:v>
+                  <c:v>0.00217954102802384</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0148966755216624</c:v>
+                  <c:v>0.000335591068254348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0037100281115276</c:v>
+                  <c:v>4.06288462612794E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.000726513676007946</c:v>
+                  <c:v>3.86756247114346E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.000111863689418116</c:v>
+                  <c:v>2.89480248202251E-7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.35429487537598E-5</c:v>
+                  <c:v>1.70364572013925E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4099,67 +4007,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.53076849126416E-7</c:v>
+                  <c:v>0.000771457994633914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.23583626216686E-6</c:v>
+                  <c:v>0.00479493425566747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.25311493699205E-5</c:v>
+                  <c:v>0.0234332098105269</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000257152664877971</c:v>
+                  <c:v>0.090045011220652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00159831141855582</c:v>
+                  <c:v>0.27206099582171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0078110699368423</c:v>
+                  <c:v>0.646326051697185</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0300150037402173</c:v>
+                  <c:v>1.207301641288297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0906869986072367</c:v>
+                  <c:v>1.77320387573524</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.215442017232395</c:v>
+                  <c:v>2.047765887359776</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.402433880429432</c:v>
+                  <c:v>1.859433656244206</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.591067958578413</c:v>
+                  <c:v>1.327577313726468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.682588629119925</c:v>
+                  <c:v>0.745276982596668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.619811218748068</c:v>
+                  <c:v>0.328968523822427</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.442525771242156</c:v>
+                  <c:v>0.114174662063308</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.248425660865556</c:v>
+                  <c:v>0.0311575912073729</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.109656174607476</c:v>
+                  <c:v>0.00668554423227194</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0380582206877693</c:v>
+                  <c:v>0.0011279462619337</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.010385863735791</c:v>
+                  <c:v>0.000149630043936326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00222851474409065</c:v>
+                  <c:v>1.56073061300531E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.000375982087311233</c:v>
+                  <c:v>1.2800173188246E-6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.98766813121088E-5</c:v>
+                  <c:v>8.25434266480565E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4266,67 +4174,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.32709942227434E-7</c:v>
+                  <c:v>0.000532209005634704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.85927605785237E-6</c:v>
+                  <c:v>0.00362459001583296</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.04815606072047E-5</c:v>
+                  <c:v>0.0194094983931089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000177403001878235</c:v>
+                  <c:v>0.0817237873954804</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00120819667194432</c:v>
+                  <c:v>0.270558641762804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00646983279770296</c:v>
+                  <c:v>0.704292536485386</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0272412624651601</c:v>
+                  <c:v>1.441529430771571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0901862139209346</c:v>
+                  <c:v>2.319918308236748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.234764178828462</c:v>
+                  <c:v>2.935625302814977</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.48050981025719</c:v>
+                  <c:v>2.920836880811238</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.773306102745583</c:v>
+                  <c:v>2.285034368023212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.978541767604992</c:v>
+                  <c:v>1.405584374292601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.973612293603746</c:v>
+                  <c:v>0.679829264900912</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.761678122674404</c:v>
+                  <c:v>0.258536308008473</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.4685281247642</c:v>
+                  <c:v>0.0773075625833739</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.226609754966971</c:v>
+                  <c:v>0.0181761195311547</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0861787693361577</c:v>
+                  <c:v>0.003360153448371</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0257691875277913</c:v>
+                  <c:v>0.000488422658141833</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00605870651038492</c:v>
+                  <c:v>5.58227524263671E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.001120051149457</c:v>
+                  <c:v>5.01655341598458E-6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.000162807552713944</c:v>
+                  <c:v>3.54469103604428E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4433,67 +4341,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.16804008199298E-8</c:v>
+                  <c:v>0.000325420448962401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.46877729061996E-7</c:v>
+                  <c:v>0.0024284424090419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.14292930394063E-5</c:v>
+                  <c:v>0.0142491687097998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000108473482987467</c:v>
+                  <c:v>0.065740045426659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000809480803013967</c:v>
+                  <c:v>0.238478495119011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00474972290326659</c:v>
+                  <c:v>0.680216553348021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.021913348475553</c:v>
+                  <c:v>1.525541132270694</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0794928317063371</c:v>
+                  <c:v>2.690167975347858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.226738851116007</c:v>
+                  <c:v>3.730041178979966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.508513710756898</c:v>
+                  <c:v>4.066554580278437</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.896722658449286</c:v>
+                  <c:v>3.485927386400646</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.243347059659989</c:v>
+                  <c:v>2.349572325853939</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.355518193426145</c:v>
+                  <c:v>1.245196959490126</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.161975795466882</c:v>
+                  <c:v>0.518878930510462</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.783190775284646</c:v>
+                  <c:v>0.170009336385685</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.415065653163375</c:v>
+                  <c:v>0.0437984013971186</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.172959643503487</c:v>
+                  <c:v>0.00887201971170467</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.0566697787952284</c:v>
+                  <c:v>0.00141307589491243</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0145994671323729</c:v>
+                  <c:v>0.000176964938412979</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00295733990390156</c:v>
+                  <c:v>1.74255992458855E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.000471025298304142</c:v>
+                  <c:v>1.34917090138297E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4600,67 +4508,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.54087675492409E-8</c:v>
+                  <c:v>0.000176360022882907</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.27402061606206E-7</c:v>
+                  <c:v>0.00144208019700354</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.65286191091552E-6</c:v>
+                  <c:v>0.00927165858344477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.87866742943022E-5</c:v>
+                  <c:v>0.0468709979259471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000480693399001179</c:v>
+                  <c:v>0.186307235084163</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00309055286114826</c:v>
+                  <c:v>0.582282841356658</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0156236659753157</c:v>
+                  <c:v>1.430925475656468</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0621024116947209</c:v>
+                  <c:v>2.764895936929639</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.194094280452219</c:v>
+                  <c:v>4.20067726384192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.476975158552156</c:v>
+                  <c:v>5.018091700846428</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.921631978976546</c:v>
+                  <c:v>4.713425227056487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.400225754613974</c:v>
+                  <c:v>3.481075172137091</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.672697233615476</c:v>
+                  <c:v>2.02147759852392</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.571141742352163</c:v>
+                  <c:v>0.923003218670332</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.160358390712364</c:v>
+                  <c:v>0.331372336009885</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67382586617464</c:v>
+                  <c:v>0.0935422979504756</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.307667739556777</c:v>
+                  <c:v>0.0207624486357606</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.110457445336628</c:v>
+                  <c:v>0.00362349660639026</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0311807659834919</c:v>
+                  <c:v>0.00049722836793397</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0069208162119202</c:v>
+                  <c:v>5.36491306156956E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00120783220213009</c:v>
+                  <c:v>4.55143380112109E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4769,67 +4677,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9.27710984327542E-9</c:v>
+                  <c:v>8.47126248776518E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.70990510624344E-7</c:v>
+                  <c:v>0.00075900336846705</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.47805003460275E-6</c:v>
+                  <c:v>0.0053470964645854</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.82375416258839E-5</c:v>
+                  <c:v>0.0296190473625406</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00025300112282235</c:v>
+                  <c:v>0.129003919220149</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00178236548819513</c:v>
+                  <c:v>0.44178755157073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00987301578751353</c:v>
+                  <c:v>1.189605040074005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0430013064067162</c:v>
+                  <c:v>2.518667672455256</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.147262517190243</c:v>
+                  <c:v>4.19293076957204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.396535013358001</c:v>
+                  <c:v>5.488368547455182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.839555890818418</c:v>
+                  <c:v>5.648688074318482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.397643589857347</c:v>
+                  <c:v>4.5712047153475</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.829456182485061</c:v>
+                  <c:v>2.908656929881319</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.882896024772827</c:v>
+                  <c:v>1.455234829485218</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.523734905115833</c:v>
+                  <c:v>0.572469577775029</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.96955230996044</c:v>
+                  <c:v>0.17707224577641</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.485078276495073</c:v>
+                  <c:v>0.04306528541306</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.190823192591676</c:v>
+                  <c:v>0.00823536619963913</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0590240819254701</c:v>
+                  <c:v>0.00123827542138557</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0143550951376867</c:v>
+                  <c:v>0.000146396381078433</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00274512206654638</c:v>
+                  <c:v>1.36088736154574E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4938,67 +4846,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.00216448607491E-9</c:v>
+                  <c:v>3.60652392004635E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.06317483509353E-8</c:v>
+                  <c:v>0.000354071262327107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.62818555046318E-7</c:v>
+                  <c:v>0.00273319925074424</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.20217464001545E-5</c:v>
+                  <c:v>0.0165893992024905</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000118023754109036</c:v>
+                  <c:v>0.0791714819707559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000911066416914746</c:v>
+                  <c:v>0.297088363874825</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00552979973416352</c:v>
+                  <c:v>0.87655921767825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.026390493990252</c:v>
+                  <c:v>2.033553634824982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0990294546249415</c:v>
+                  <c:v>3.709443435859157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29218640589275</c:v>
+                  <c:v>5.320355178177251</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.677851211608327</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.236481145286386</c:v>
+                  <c:v>5.320355178177251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.773451726059084</c:v>
+                  <c:v>3.709443435859157</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0</c:v>
+                  <c:v>2.033553634824982</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.773451726059084</c:v>
+                  <c:v>0.87655921767825</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.236481145286386</c:v>
+                  <c:v>0.297088363874825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.677851211608327</c:v>
+                  <c:v>0.0791714819707559</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.29218640589275</c:v>
+                  <c:v>0.0165893992024905</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0990294546249415</c:v>
+                  <c:v>0.00273319925074424</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.026390493990252</c:v>
+                  <c:v>0.000354071262327107</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00552979973416352</c:v>
+                  <c:v>3.60652392004635E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5107,67 +5015,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>8.61090808240006E-10</c:v>
+                  <c:v>1.36088736154574E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.90555224140204E-8</c:v>
+                  <c:v>0.000146396381078433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3156716595191E-7</c:v>
+                  <c:v>0.00123827542138557</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.53629120515246E-6</c:v>
+                  <c:v>0.00823536619963913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.87987936928109E-5</c:v>
+                  <c:v>0.04306528541306</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00041275847379519</c:v>
+                  <c:v>0.17707224577641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00274512206654638</c:v>
+                  <c:v>0.572469577775029</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0143550951376867</c:v>
+                  <c:v>1.455234829485218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0590240819254701</c:v>
+                  <c:v>2.908656929881319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.190823192591676</c:v>
+                  <c:v>4.5712047153475</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.485078276495073</c:v>
+                  <c:v>5.648688074318482</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.96955230996044</c:v>
+                  <c:v>5.488368547455182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.523734905115833</c:v>
+                  <c:v>4.19293076957204</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.882896024772827</c:v>
+                  <c:v>2.518667672455256</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.829456182485061</c:v>
+                  <c:v>1.189605040074005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.397643589857347</c:v>
+                  <c:v>0.44178755157073</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.839555890818418</c:v>
+                  <c:v>0.129003919220149</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.396535013358001</c:v>
+                  <c:v>0.0296190473625406</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.147262517190243</c:v>
+                  <c:v>0.0053470964645854</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0430013064067162</c:v>
+                  <c:v>0.00075900336846705</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00987301578751353</c:v>
+                  <c:v>8.47126248776518E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5276,67 +5184,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.18905215680943E-10</c:v>
+                  <c:v>4.55143380112109E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.30804154615034E-9</c:v>
+                  <c:v>5.36491306156956E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.01202506509738E-7</c:v>
+                  <c:v>0.00049722836793397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5171446003737E-6</c:v>
+                  <c:v>0.00362349660639026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.78830435385652E-5</c:v>
+                  <c:v>0.0207624486357606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000165742789311323</c:v>
+                  <c:v>0.0935422979504756</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00120783220213009</c:v>
+                  <c:v>0.331372336009885</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0069208162119202</c:v>
+                  <c:v>0.923003218670332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0311807659834919</c:v>
+                  <c:v>2.02147759852392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.110457445336628</c:v>
+                  <c:v>3.481075172137091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.307667739556777</c:v>
+                  <c:v>4.713425227056487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67382586617464</c:v>
+                  <c:v>5.018091700846428</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.160358390712364</c:v>
+                  <c:v>4.20067726384192</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.571141742352163</c:v>
+                  <c:v>2.764895936929639</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.672697233615476</c:v>
+                  <c:v>1.430925475656468</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.400225754613974</c:v>
+                  <c:v>0.582282841356658</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.921631978976546</c:v>
+                  <c:v>0.186307235084163</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.476975158552156</c:v>
+                  <c:v>0.0468709979259471</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.194094280452219</c:v>
+                  <c:v>0.00927165858344477</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0621024116947209</c:v>
+                  <c:v>0.00144208019700354</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0156236659753157</c:v>
+                  <c:v>0.000176360022882907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5445,67 +5353,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.93237344545846E-11</c:v>
+                  <c:v>1.34917090138297E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.31051034337578E-9</c:v>
+                  <c:v>1.74255992458855E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.73781252772008E-8</c:v>
+                  <c:v>0.000176964938412979</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.49723633794325E-7</c:v>
+                  <c:v>0.00141307589491243</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.80853308196185E-6</c:v>
+                  <c:v>0.00887201971170467</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.89883128043264E-5</c:v>
+                  <c:v>0.0437984013971186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000471025298304142</c:v>
+                  <c:v>0.170009336385685</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00295733990390156</c:v>
+                  <c:v>0.518878930510462</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0145994671323729</c:v>
+                  <c:v>1.245196959490126</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0566697787952284</c:v>
+                  <c:v>2.349572325853939</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.172959643503487</c:v>
+                  <c:v>3.485927386400646</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.415065653163375</c:v>
+                  <c:v>4.066554580278437</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.783190775284646</c:v>
+                  <c:v>3.730041178979966</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.161975795466882</c:v>
+                  <c:v>2.690167975347858</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.355518193426145</c:v>
+                  <c:v>1.525541132270694</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.243347059659989</c:v>
+                  <c:v>0.680216553348021</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.896722658449286</c:v>
+                  <c:v>0.238478495119011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.508513710756898</c:v>
+                  <c:v>0.065740045426659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.226738851116007</c:v>
+                  <c:v>0.0142491687097998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0794928317063371</c:v>
+                  <c:v>0.0024284424090419</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.021913348475553</c:v>
+                  <c:v>0.000325420448962401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5614,67 +5522,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>9.8502777922063E-12</c:v>
+                  <c:v>3.54469103604428E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.86773672707104E-10</c:v>
+                  <c:v>5.01655341598458E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5646084834467E-9</c:v>
+                  <c:v>5.58227524263671E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.18156367868143E-7</c:v>
+                  <c:v>0.000488422658141833</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.67218447199486E-6</c:v>
+                  <c:v>0.003360153448371</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.86075841421224E-5</c:v>
+                  <c:v>0.0181761195311547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000162807552713944</c:v>
+                  <c:v>0.0773075625833739</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001120051149457</c:v>
+                  <c:v>0.258536308008473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00605870651038492</c:v>
+                  <c:v>0.679829264900912</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0257691875277913</c:v>
+                  <c:v>1.405584374292601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0861787693361577</c:v>
+                  <c:v>2.285034368023212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.226609754966971</c:v>
+                  <c:v>2.920836880811238</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4685281247642</c:v>
+                  <c:v>2.935625302814977</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.761678122674404</c:v>
+                  <c:v>2.319918308236748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.973612293603746</c:v>
+                  <c:v>1.441529430771571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.978541767604992</c:v>
+                  <c:v>0.704292536485386</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.773306102745583</c:v>
+                  <c:v>0.270558641762804</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.48050981025719</c:v>
+                  <c:v>0.0817237873954804</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.234764178828462</c:v>
+                  <c:v>0.0194094983931089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0901862139209346</c:v>
+                  <c:v>0.00362459001583296</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0272412624651601</c:v>
+                  <c:v>0.000532209005634704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5784,67 +5692,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.7435471311286E-12</c:v>
+                  <c:v>8.25434266480565E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.56199750188654E-11</c:v>
+                  <c:v>1.2800173188246E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.39510417586834E-9</c:v>
+                  <c:v>1.56073061300531E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.75144755493522E-8</c:v>
+                  <c:v>0.000149630043936326</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.26672439608199E-7</c:v>
+                  <c:v>0.0011279462619337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.20243537668436E-6</c:v>
+                  <c:v>0.00668554423227194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.98766813121088E-5</c:v>
+                  <c:v>0.0311575912073729</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000375982087311233</c:v>
+                  <c:v>0.114174662063308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00222851474409065</c:v>
+                  <c:v>0.328968523822427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.010385863735791</c:v>
+                  <c:v>0.745276982596668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0380582206877693</c:v>
+                  <c:v>1.327577313726468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.109656174607476</c:v>
+                  <c:v>1.859433656244206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.248425660865556</c:v>
+                  <c:v>2.047765887359776</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.442525771242156</c:v>
+                  <c:v>1.77320387573524</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.619811218748068</c:v>
+                  <c:v>1.207301641288297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.682588629119925</c:v>
+                  <c:v>0.646326051697185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.591067958578413</c:v>
+                  <c:v>0.27206099582171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.402433880429432</c:v>
+                  <c:v>0.090045011220652</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.215442017232395</c:v>
+                  <c:v>0.0234332098105269</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0906869986072367</c:v>
+                  <c:v>0.00479493425566747</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0300150037402173</c:v>
+                  <c:v>0.000771457994633914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5954,67 +5862,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.73534172688585E-13</c:v>
+                  <c:v>1.70364572013925E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.56125687768565E-12</c:v>
+                  <c:v>2.89480248202251E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.62782919569468E-10</c:v>
+                  <c:v>3.86756247114346E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.67881906713082E-9</c:v>
+                  <c:v>4.06288462612794E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.64934160674169E-8</c:v>
+                  <c:v>0.000335591068254348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.28918749038115E-6</c:v>
+                  <c:v>0.00217954102802384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.35429487537598E-5</c:v>
+                  <c:v>0.0111300843345828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000111863689418116</c:v>
+                  <c:v>0.0446900265649872</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000726513676007946</c:v>
+                  <c:v>0.141091718071271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0037100281115276</c:v>
+                  <c:v>0.350244385606151</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0148966755216624</c:v>
+                  <c:v>0.683627609335198</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0470305726904236</c:v>
+                  <c:v>1.049172157915023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.116748128535384</c:v>
+                  <c:v>1.26605528799998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.227875869778399</c:v>
+                  <c:v>1.201260888542257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.349724052638341</c:v>
+                  <c:v>0.896191363442072</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.422018429333326</c:v>
+                  <c:v>0.525705986650358</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.400420296180752</c:v>
+                  <c:v>0.242473254948625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.298730454480691</c:v>
+                  <c:v>0.0879353534434162</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.175235328883453</c:v>
+                  <c:v>0.025075057403159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0808244183162083</c:v>
+                  <c:v>0.00562210703600838</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0293117844811387</c:v>
+                  <c:v>0.000991140071034214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6124,67 +6032,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.80348909381685E-14</c:v>
+                  <c:v>3.11651172389657E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.45677295087308E-12</c:v>
+                  <c:v>5.80249416825657E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.38712808348453E-11</c:v>
+                  <c:v>8.49453111794214E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.03883724129886E-9</c:v>
+                  <c:v>9.77783854912453E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.93416472275219E-8</c:v>
+                  <c:v>8.84962898581858E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.83151037264738E-7</c:v>
+                  <c:v>0.000629775870078948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.25927951637484E-6</c:v>
+                  <c:v>0.00352391740670851</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.94987632860619E-5</c:v>
+                  <c:v>0.0155040148808869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000209925290026316</c:v>
+                  <c:v>0.0536341476855125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0011746391355695</c:v>
+                  <c:v>0.145887251342056</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00516800496029562</c:v>
+                  <c:v>0.312012541803138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0178780492285042</c:v>
+                  <c:v>0.524693292604347</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0486290837806852</c:v>
+                  <c:v>0.693773528170056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.104004180601046</c:v>
+                  <c:v>0.721287969198755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.174897764201449</c:v>
+                  <c:v>0.589628413310525</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.231257842723352</c:v>
+                  <c:v>0.378989231012231</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.240429323066252</c:v>
+                  <c:v>0.191537620267771</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.196542804436842</c:v>
+                  <c:v>0.0761132131507761</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.126329743670744</c:v>
+                  <c:v>0.023781802961378</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0638458734225903</c:v>
+                  <c:v>0.00584262816816507</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0253710710502587</c:v>
+                  <c:v>0.00112862709225101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6294,67 +6202,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>4.68754495494368E-15</c:v>
+                  <c:v>5.05301897586047E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.96725853113621E-13</c:v>
+                  <c:v>1.03086827576304E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.49166619730347E-12</c:v>
+                  <c:v>1.65361411845916E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.68433965862016E-10</c:v>
+                  <c:v>2.08566195826983E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.43622758587681E-9</c:v>
+                  <c:v>2.06838995216955E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.51204706153054E-8</c:v>
+                  <c:v>0.000161287113763514</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.95220652756611E-7</c:v>
+                  <c:v>0.000988884734013118</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.89463317389851E-6</c:v>
+                  <c:v>0.00476727742737242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.37623712545046E-5</c:v>
+                  <c:v>0.0180706565130855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000329628244671039</c:v>
+                  <c:v>0.0538587397576356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00158909247579081</c:v>
+                  <c:v>0.126216808556997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00602355217102849</c:v>
+                  <c:v>0.232571746132887</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0179529132525452</c:v>
+                  <c:v>0.33695776100667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0420722695189991</c:v>
+                  <c:v>0.383859881840118</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0775239153776289</c:v>
+                  <c:v>0.343833935474876</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11231925366889</c:v>
+                  <c:v>0.242160610233503</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.127953293946706</c:v>
+                  <c:v>0.134102544353821</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.114611311824959</c:v>
+                  <c:v>0.0583914533326603</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0807202034111676</c:v>
+                  <c:v>0.019991266234901</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.0447008481179403</c:v>
+                  <c:v>0.00538158336797674</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.0194638177775534</c:v>
+                  <c:v>0.00113909145331545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6762,29 +6670,6 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="3"/>
         <c:txPr>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
@@ -7213,7 +7098,7 @@
   <dimension ref="A2:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7234,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -7297,67 +7182,67 @@
       </c>
       <c r="E4">
         <f>$B$7*EXP(-(($B$11*POWER($E$3-$B$2,2)+2*$B$12*($E$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>6.4080869102194921E-7</v>
+        <v>1.1286270922510099E-3</v>
       </c>
       <c r="F4">
         <f>$B$7*EXP(-(($B$11*POWER(F3-$B$2,2)+2*$B$12*(F3-$B$2)*($D$4-$B$3)+$B$13*POWER(($D$4-$B$3),2))))</f>
-        <v>4.2775398397803813E-7</v>
+        <v>9.9114007103421426E-4</v>
       </c>
       <c r="G4">
         <f>$B$7*EXP(-(($B$11*POWER($G$3-$B$2,2)+2*$B$12*($G$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>2.5307684912641574E-7</v>
+        <v>7.7145799463391421E-4</v>
       </c>
       <c r="H4">
         <f>$B$7*EXP(-(($B$11*POWER($H$3-$B$2,2)+2*$B$12*($H$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>1.3270994222743428E-7</v>
+        <v>5.3220900563470403E-4</v>
       </c>
       <c r="I4">
         <f>$B$7*EXP(-(($B$11*POWER($I$3-$B$2,2)+2*$B$12*($I$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>6.1680400819929788E-8</v>
+        <v>3.2542044896240109E-4</v>
       </c>
       <c r="J4">
         <f>$B$7*EXP(-(($B$11*POWER($J$3-$B$2,2)+2*$B$12*($J$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>2.540876754924095E-8</v>
+        <v>1.7636002288290659E-4</v>
       </c>
       <c r="K4">
         <f>$B$7*EXP(-(($B$11*POWER($K$3-$B$2,2)+2*$B$12*($K$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>9.2771098432754191E-9</v>
+        <v>8.4712624877651804E-5</v>
       </c>
       <c r="L4">
         <f>$B$7*EXP(-(($B$11*POWER($L$3-$B$2,2)+2*$B$12*($L$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>3.0021644860749112E-9</v>
+        <v>3.6065239200463549E-5</v>
       </c>
       <c r="M4">
         <f>$B$7*EXP(-(($B$11*POWER($M$3-$B$2,2)+2*$B$12*($M$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>8.6109080824000591E-10</v>
+        <v>1.3608873615457382E-5</v>
       </c>
       <c r="N4">
         <f>$B$7*EXP(-(($B$11*POWER($N$3-$B$2,2)+2*$B$12*($N$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>2.189052156809431E-10</v>
+        <v>4.5514338011210946E-6</v>
       </c>
       <c r="O4">
         <f>$B$7*EXP(-(($B$11*POWER($O$3-$B$2,2)+2*$B$12*($O$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>4.9323734454584635E-11</v>
+        <v>1.3491709013829742E-6</v>
       </c>
       <c r="P4">
         <f>$B$7*EXP(-(($B$11*POWER($P$3-$B$2,2)+2*$B$12*($P$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>9.8502777922062985E-12</v>
+        <v>3.5446910360442836E-7</v>
       </c>
       <c r="Q4">
         <f>$B$7*EXP(-(($B$11*POWER($Q$3-$B$2,2)+2*$B$12*($Q$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>1.7435471311286017E-12</v>
+        <v>8.2543426648056554E-8</v>
       </c>
       <c r="R4">
         <f>$B$7*EXP(-(($B$11*POWER($R$3-$B$2,2)+2*$B$12*($R$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>2.7353417268858497E-13</v>
+        <v>1.7036457201392477E-8</v>
       </c>
       <c r="S4">
         <f>$B$7*EXP(-(($B$11*POWER($S$3-$B$2,2)+2*$B$12*($S$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>3.8034890938168539E-14</v>
+        <v>3.1165117238965698E-9</v>
       </c>
       <c r="T4">
         <f>$B$7*EXP(-(($B$11*POWER($T$3-$B$2,2)+2*$B$12*($T$3-$B$2)*(D4-$B$3)+$B$13*POWER((D4-$B$3),2))))</f>
-        <v>4.6875449549436836E-15</v>
+        <v>5.0530189758604749E-10</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -7372,67 +7257,67 @@
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E24" si="0">$B$7*EXP(-(($B$11*POWER($E$3-$B$2,2)+2*$B$12*($E$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>6.8241712431913395E-6</v>
+        <v>5.8426281681650694E-3</v>
       </c>
       <c r="F5">
         <f>$B$7*EXP(-(($B$11*POWER($F$3-$B$2,2)+2*$B$12*($F$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>4.9913943614008079E-6</v>
+        <v>5.622107036008385E-3</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G24" si="1">$B$7*EXP(-(($B$11*POWER($G$3-$B$2,2)+2*$B$12*($G$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>3.2358362621668651E-6</v>
+        <v>4.794934255667474E-3</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H24" si="2">$B$7*EXP(-(($B$11*POWER($H$3-$B$2,2)+2*$B$12*($H$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>1.8592760578523671E-6</v>
+        <v>3.62459001583296E-3</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I24" si="3">$B$7*EXP(-(($B$11*POWER($I$3-$B$2,2)+2*$B$12*($I$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>9.4687772906199602E-7</v>
+        <v>2.4284424090419031E-3</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J24" si="4">$B$7*EXP(-(($B$11*POWER($J$3-$B$2,2)+2*$B$12*($J$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>4.2740206160620617E-7</v>
+        <v>1.4420801970035388E-3</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K24" si="5">$B$7*EXP(-(($B$11*POWER($K$3-$B$2,2)+2*$B$12*($K$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>1.7099051062434398E-7</v>
+        <v>7.5900336846705045E-4</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L24" si="6">$B$7*EXP(-(($B$11*POWER($L$3-$B$2,2)+2*$B$12*($L$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>6.0631748350935315E-8</v>
+        <v>3.5407126232710743E-4</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M24" si="7">$B$7*EXP(-(($B$11*POWER($M$3-$B$2,2)+2*$B$12*($M$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>1.9055522414020366E-8</v>
+        <v>1.4639638107843278E-4</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N24" si="8">$B$7*EXP(-(($B$11*POWER($N$3-$B$2,2)+2*$B$12*($N$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>5.3080415461503464E-9</v>
+        <v>5.3649130615695615E-5</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O24" si="9">$B$7*EXP(-(($B$11*POWER($O$3-$B$2,2)+2*$B$12*($O$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>1.3105103433757807E-9</v>
+        <v>1.7425599245885542E-5</v>
       </c>
       <c r="P5">
         <f t="shared" ref="P5:P24" si="10">$B$7*EXP(-(($B$11*POWER($P$3-$B$2,2)+2*$B$12*($P$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>2.8677367270710421E-10</v>
+        <v>5.0165534159845857E-6</v>
       </c>
       <c r="Q5">
         <f t="shared" ref="Q5:Q24" si="11">$B$7*EXP(-(($B$11*POWER($Q$3-$B$2,2)+2*$B$12*($Q$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>5.5619975018865433E-11</v>
+        <v>1.2800173188245975E-6</v>
       </c>
       <c r="R5">
         <f t="shared" ref="R5:R24" si="12">$B$7*EXP(-(($B$11*POWER($R$3-$B$2,2)+2*$B$12*($R$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>9.5612568776856501E-12</v>
+        <v>2.894802482022509E-7</v>
       </c>
       <c r="S5">
         <f t="shared" ref="S5:S24" si="13">$B$7*EXP(-(($B$11*POWER($S$3-$B$2,2)+2*$B$12*($S$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>1.4567729508730846E-12</v>
+        <v>5.8024941682565661E-8</v>
       </c>
       <c r="T5">
         <f t="shared" ref="T5:T24" si="14">$B$7*EXP(-(($B$11*POWER($T$3-$B$2,2)+2*$B$12*($T$3-$B$2)*(D5-$B$3)+$B$13*POWER((D5-$B$3),2))))</f>
-        <v>1.9672585311362126E-13</v>
+        <v>1.0308682757630421E-8</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -7447,67 +7332,67 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>5.7141309745584163E-5</v>
+        <v>2.3781802961377992E-2</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F24" si="15">$B$7*EXP(-(($B$11*POWER($F$3-$B$2,2)+2*$B$12*($F$3-$B$2)*(D6-$B$3)+$B$13*POWER((D6-$B$3),2))))</f>
-        <v>4.5796095922589872E-5</v>
+        <v>2.5075057403158983E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>3.2531149369920455E-5</v>
+        <v>2.3433209810526903E-2</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>2.0481560607204717E-5</v>
+        <v>1.9409498393108883E-2</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>1.1429293039406297E-5</v>
+        <v>1.4249168709799771E-2</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>5.6528619109155255E-6</v>
+        <v>9.2716585834447772E-3</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>2.4780500346027476E-6</v>
+        <v>5.3470964645853988E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
-        <v>9.628185550463185E-7</v>
+        <v>2.7331992507442396E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>3.315671659519099E-7</v>
+        <v>1.238275421385571E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="8"/>
-        <v>1.0120250650973768E-7</v>
+        <v>4.972283679339697E-4</v>
       </c>
       <c r="O6">
         <f t="shared" si="9"/>
-        <v>2.7378125277200815E-8</v>
+        <v>1.769649384129791E-4</v>
       </c>
       <c r="P6">
         <f t="shared" si="10"/>
-        <v>6.5646084834467028E-9</v>
+        <v>5.5822752426367145E-5</v>
       </c>
       <c r="Q6">
         <f t="shared" si="11"/>
-        <v>1.395104175868344E-9</v>
+        <v>1.5607306130053092E-5</v>
       </c>
       <c r="R6">
         <f t="shared" si="12"/>
-        <v>2.6278291956946834E-10</v>
+        <v>3.8675624711434568E-6</v>
       </c>
       <c r="S6">
         <f t="shared" si="13"/>
-        <v>4.3871280834845309E-11</v>
+        <v>8.4945311179421455E-7</v>
       </c>
       <c r="T6">
         <f t="shared" si="14"/>
-        <v>6.4916661973034685E-12</v>
+        <v>1.6536141184591616E-7</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -7515,74 +7400,74 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>3.7620903075033665E-4</v>
+        <v>7.6113213150776099E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="15"/>
-        <v>3.303800236780714E-4</v>
+        <v>8.7935353443416173E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>2.5715266487797138E-4</v>
+        <v>9.0045011220651991E-2</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>1.7740300187823468E-4</v>
+        <v>8.172378739548046E-2</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1.0847348298746704E-4</v>
+        <v>6.5740045426659025E-2</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>5.87866742943022E-5</v>
+        <v>4.6870997925947157E-2</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>2.8237541625883935E-5</v>
+        <v>2.9619047362540604E-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="6"/>
-        <v>1.2021746400154517E-5</v>
+        <v>1.6589399202490553E-2</v>
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>4.5362912051524611E-6</v>
+        <v>8.2353661996391343E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="8"/>
-        <v>1.5171446003736983E-6</v>
+        <v>3.623496606390263E-3</v>
       </c>
       <c r="O7">
         <f t="shared" si="9"/>
-        <v>4.4972363379432476E-7</v>
+        <v>1.4130758949124278E-3</v>
       </c>
       <c r="P7">
         <f t="shared" si="10"/>
-        <v>1.1815636786814279E-7</v>
+        <v>4.8842265814183321E-4</v>
       </c>
       <c r="Q7">
         <f t="shared" si="11"/>
-        <v>2.7514475549352185E-8</v>
+        <v>1.4963004393632633E-4</v>
       </c>
       <c r="R7">
         <f t="shared" si="12"/>
-        <v>5.6788190671308254E-9</v>
+        <v>4.0628846261279414E-5</v>
       </c>
       <c r="S7">
         <f t="shared" si="13"/>
-        <v>1.0388372412988566E-9</v>
+        <v>9.7778385491245297E-6</v>
       </c>
       <c r="T7">
         <f t="shared" si="14"/>
-        <v>1.6843396586201584E-10</v>
+        <v>2.0856619582698347E-6</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -7591,67 +7476,67 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>1.9475427227216898E-3</v>
+        <v>0.19153762026777096</v>
       </c>
       <c r="F8">
         <f t="shared" si="15"/>
-        <v>1.8740356786694618E-3</v>
+        <v>0.24247325494862482</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>1.5983114185558248E-3</v>
+        <v>0.27206099582171023</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>1.20819667194432E-3</v>
+        <v>0.27055864176280398</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>8.0948080301396761E-4</v>
+        <v>0.23847849511901142</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>4.8069339900117962E-4</v>
+        <v>0.18630723508416286</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>2.5300112282235015E-4</v>
+        <v>0.12900391922014873</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>1.1802375410903581E-4</v>
+        <v>7.9171481970755908E-2</v>
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>4.8798793692810926E-5</v>
+        <v>4.3065285413059998E-2</v>
       </c>
       <c r="N8">
         <f t="shared" si="8"/>
-        <v>1.7883043538565204E-5</v>
+        <v>2.0762448635760607E-2</v>
       </c>
       <c r="O8">
         <f t="shared" si="9"/>
-        <v>5.808533081961847E-6</v>
+        <v>8.8720197117046762E-3</v>
       </c>
       <c r="P8">
         <f t="shared" si="10"/>
-        <v>1.6721844719948617E-6</v>
+        <v>3.3601534483710016E-3</v>
       </c>
       <c r="Q8">
         <f t="shared" si="11"/>
-        <v>4.266724396081992E-7</v>
+        <v>1.1279462619336988E-3</v>
       </c>
       <c r="R8">
         <f t="shared" si="12"/>
-        <v>9.649341606741697E-8</v>
+        <v>3.355910682543477E-4</v>
       </c>
       <c r="S8">
         <f t="shared" si="13"/>
-        <v>1.9341647227521886E-8</v>
+        <v>8.8496289858185822E-5</v>
       </c>
       <c r="T8">
         <f t="shared" si="14"/>
-        <v>3.4362275858768066E-9</v>
+        <v>2.0683899521695518E-5</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -7660,67 +7545,67 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>7.9272676537926641E-3</v>
+        <v>0.37898923101223153</v>
       </c>
       <c r="F9">
         <f t="shared" si="15"/>
-        <v>8.3583524677196611E-3</v>
+        <v>0.52570598665035795</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>7.8110699368423011E-3</v>
+        <v>0.64632605169718471</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>6.469832797702961E-3</v>
+        <v>0.70429253648538592</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>4.7497229032665905E-3</v>
+        <v>0.68021655334802078</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>3.0905528611482594E-3</v>
+        <v>0.58228284135665809</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>1.7823654881951329E-3</v>
+        <v>0.44178755157072958</v>
       </c>
       <c r="L9">
         <f t="shared" si="6"/>
-        <v>9.1106641691474652E-4</v>
+        <v>0.29708836387482462</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>4.127584737951903E-4</v>
+        <v>0.17707224577641034</v>
       </c>
       <c r="N9">
         <f t="shared" si="8"/>
-        <v>1.6574278931132325E-4</v>
+        <v>9.3542297950475667E-2</v>
       </c>
       <c r="O9">
         <f t="shared" si="9"/>
-        <v>5.8988312804326364E-5</v>
+        <v>4.3798401397118589E-2</v>
       </c>
       <c r="P9">
         <f t="shared" si="10"/>
-        <v>1.8607584142122382E-5</v>
+        <v>1.817611953115475E-2</v>
       </c>
       <c r="Q9">
         <f t="shared" si="11"/>
-        <v>5.2024353766843636E-6</v>
+        <v>6.6855442322719429E-3</v>
       </c>
       <c r="R9">
         <f t="shared" si="12"/>
-        <v>1.2891874903811521E-6</v>
+        <v>2.1795410280238373E-3</v>
       </c>
       <c r="S9">
         <f t="shared" si="13"/>
-        <v>2.8315103726473818E-7</v>
+        <v>6.297758700789483E-4</v>
       </c>
       <c r="T9">
         <f t="shared" si="14"/>
-        <v>5.512047061530539E-8</v>
+        <v>1.6128711376351378E-4</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -7729,67 +7614,67 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>2.5371071050258702E-2</v>
+        <v>0.58962841331052551</v>
       </c>
       <c r="F10">
         <f t="shared" si="15"/>
-        <v>2.9311784481138723E-2</v>
+        <v>0.89619136344207206</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>3.001500374021733E-2</v>
+        <v>1.2073016412882973</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>2.7241262465160152E-2</v>
+        <v>1.4415294307715711</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>2.1913348475553009E-2</v>
+        <v>1.5255411322706944</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>1.5623665975315719E-2</v>
+        <v>1.4309254756564684</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>9.8730157875135342E-3</v>
+        <v>1.1896050400740046</v>
       </c>
       <c r="L10">
         <f t="shared" si="6"/>
-        <v>5.5297997341635175E-3</v>
+        <v>0.87655921767824974</v>
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>2.7451220665463782E-3</v>
+        <v>0.57246957777502949</v>
       </c>
       <c r="N10">
         <f t="shared" si="8"/>
-        <v>1.2078322021300877E-3</v>
+        <v>0.33137233600988525</v>
       </c>
       <c r="O10">
         <f t="shared" si="9"/>
-        <v>4.7102529830414259E-4</v>
+        <v>0.17000933638568516</v>
       </c>
       <c r="P10">
         <f t="shared" si="10"/>
-        <v>1.6280755271394438E-4</v>
+        <v>7.7307562583373901E-2</v>
       </c>
       <c r="Q10">
         <f t="shared" si="11"/>
-        <v>4.9876681312108776E-5</v>
+        <v>3.1157591207372888E-2</v>
       </c>
       <c r="R10">
         <f t="shared" si="12"/>
-        <v>1.3542948753759805E-5</v>
+        <v>1.1130084334582816E-2</v>
       </c>
       <c r="S10">
         <f t="shared" si="13"/>
-        <v>3.2592795163748431E-6</v>
+        <v>3.5239174067085064E-3</v>
       </c>
       <c r="T10">
         <f t="shared" si="14"/>
-        <v>6.9522065275661153E-7</v>
+        <v>9.8888473401311829E-4</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -7805,67 +7690,67 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>6.3845873422590321E-2</v>
+        <v>0.72128796919875537</v>
       </c>
       <c r="F11">
         <f t="shared" si="15"/>
-        <v>8.0824418316208277E-2</v>
+        <v>1.2012608885422571</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>9.0686998607236738E-2</v>
+        <v>1.77320387573524</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>9.0186213920934649E-2</v>
+        <v>2.3199183082367485</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>7.9492831706337141E-2</v>
+        <v>2.6901679753478578</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>6.2102411694720958E-2</v>
+        <v>2.7648959369296389</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>4.300130640671624E-2</v>
+        <v>2.5186676724552557</v>
       </c>
       <c r="L11">
         <f t="shared" si="6"/>
-        <v>2.6390493990251968E-2</v>
+        <v>2.0335536348249823</v>
       </c>
       <c r="M11">
         <f t="shared" si="7"/>
-        <v>1.4355095137686666E-2</v>
+        <v>1.455234829485218</v>
       </c>
       <c r="N11">
         <f t="shared" si="8"/>
-        <v>6.9208162119202025E-3</v>
+        <v>0.92300321867033208</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>2.9573399039015589E-3</v>
+        <v>0.51887893051046219</v>
       </c>
       <c r="P11">
         <f t="shared" si="10"/>
-        <v>1.1200511494570005E-3</v>
+        <v>0.25853630800847305</v>
       </c>
       <c r="Q11">
         <f t="shared" si="11"/>
-        <v>3.7598208731123292E-4</v>
+        <v>0.11417466206330801</v>
       </c>
       <c r="R11">
         <f t="shared" si="12"/>
-        <v>1.1186368941811591E-4</v>
+        <v>4.4690026564987169E-2</v>
       </c>
       <c r="S11">
         <f t="shared" si="13"/>
-        <v>2.9498763286061941E-5</v>
+        <v>1.5504014880886857E-2</v>
       </c>
       <c r="T11">
         <f t="shared" si="14"/>
-        <v>6.8946331738985063E-6</v>
+        <v>4.7672774273724208E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -7881,67 +7766,67 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.12632974367074384</v>
+        <v>0.69377352817005633</v>
       </c>
       <c r="F12">
         <f t="shared" si="15"/>
-        <v>0.17523532888345267</v>
+        <v>1.2660552879999796</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0.21544201723239492</v>
+        <v>2.0477658873597759</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.23476417882846198</v>
+        <v>2.9356253028149766</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>0.22673885111600692</v>
+        <v>3.7300411789799659</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>0.19409428045221938</v>
+        <v>4.2006772638419205</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>0.14726251719024319</v>
+        <v>4.1929307695720404</v>
       </c>
       <c r="L12">
         <f t="shared" si="6"/>
-        <v>9.9029454624941546E-2</v>
+        <v>3.7094434358591566</v>
       </c>
       <c r="M12">
         <f t="shared" si="7"/>
-        <v>5.9024081925470109E-2</v>
+        <v>2.9086569298813192</v>
       </c>
       <c r="N12">
         <f t="shared" si="8"/>
-        <v>3.1180765983491891E-2</v>
+        <v>2.0214775985239202</v>
       </c>
       <c r="O12">
         <f t="shared" si="9"/>
-        <v>1.4599467132372864E-2</v>
+        <v>1.245196959490126</v>
       </c>
       <c r="P12">
         <f t="shared" si="10"/>
-        <v>6.0587065103849171E-3</v>
+        <v>0.67982926490091256</v>
       </c>
       <c r="Q12">
         <f t="shared" si="11"/>
-        <v>2.2285147440906476E-3</v>
+        <v>0.32896852382242714</v>
       </c>
       <c r="R12">
         <f t="shared" si="12"/>
-        <v>7.2651367600794572E-4</v>
+        <v>0.14109171807127074</v>
       </c>
       <c r="S12">
         <f t="shared" si="13"/>
-        <v>2.0992529002631608E-4</v>
+        <v>5.3634147685512473E-2</v>
       </c>
       <c r="T12">
         <f t="shared" si="14"/>
-        <v>5.3762371254504587E-5</v>
+        <v>1.8070656513085464E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -7957,67 +7842,67 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.19654280443684183</v>
+        <v>0.52469329260434749</v>
       </c>
       <c r="F13">
         <f t="shared" si="15"/>
-        <v>0.29873045448069069</v>
+        <v>1.0491721579150233</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>0.4024338804294324</v>
+        <v>1.8594336562442058</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.48050981025719036</v>
+        <v>2.9208368808112377</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>0.50851371075689811</v>
+        <v>4.0665545802784369</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>0.47697515855215616</v>
+        <v>5.0180917008464281</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>0.39653501335800151</v>
+        <v>5.488368547455182</v>
       </c>
       <c r="L13">
         <f t="shared" si="6"/>
-        <v>0.29218640589274991</v>
+        <v>5.3203551781772509</v>
       </c>
       <c r="M13">
         <f t="shared" si="7"/>
-        <v>0.19082319259167649</v>
+        <v>4.5712047153475002</v>
       </c>
       <c r="N13">
         <f t="shared" si="8"/>
-        <v>0.11045744533662842</v>
+        <v>3.4810751721370914</v>
       </c>
       <c r="O13">
         <f t="shared" si="9"/>
-        <v>5.6669778795228387E-2</v>
+        <v>2.3495723258539392</v>
       </c>
       <c r="P13">
         <f t="shared" si="10"/>
-        <v>2.5769187527791303E-2</v>
+        <v>1.4055843742926006</v>
       </c>
       <c r="Q13">
         <f t="shared" si="11"/>
-        <v>1.0385863735790963E-2</v>
+        <v>0.74527698259666797</v>
       </c>
       <c r="R13">
         <f t="shared" si="12"/>
-        <v>3.7100281115276055E-3</v>
+        <v>0.3502443856061509</v>
       </c>
       <c r="S13">
         <f t="shared" si="13"/>
-        <v>1.1746391355695021E-3</v>
+        <v>0.14588725134205557</v>
       </c>
       <c r="T13">
         <f t="shared" si="14"/>
-        <v>3.2962824467103939E-4</v>
+        <v>5.3858739757635637E-2</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -8026,67 +7911,67 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.24042932306625178</v>
+        <v>0.31201254180313848</v>
       </c>
       <c r="F14">
         <f t="shared" si="15"/>
-        <v>0.40042029618075237</v>
+        <v>0.68362760933519762</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0.59106795857841332</v>
+        <v>1.3275773137264681</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0.77330610274558287</v>
+        <v>2.2850343680232124</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>0.89672265844928589</v>
+        <v>3.4859273864006464</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>0.92163197897654625</v>
+        <v>4.7134252270564874</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>0.83955589081841853</v>
+        <v>5.648688074318482</v>
       </c>
       <c r="L14">
         <f>$B$7*EXP(-(($B$11*POWER($L$3-$B$2,2)+2*$B$12*($L$3-$B$2)*(D14-$B$3)+$B$13*POWER((D14-$B$3),2))))</f>
-        <v>0.6778512116083274</v>
+        <v>6</v>
       </c>
       <c r="M14">
         <f t="shared" si="7"/>
-        <v>0.48507827649507268</v>
+        <v>5.648688074318482</v>
       </c>
       <c r="N14">
         <f t="shared" si="8"/>
-        <v>0.30766773955677734</v>
+        <v>4.7134252270564874</v>
       </c>
       <c r="O14">
         <f t="shared" si="9"/>
-        <v>0.17295964350348739</v>
+        <v>3.4859273864006464</v>
       </c>
       <c r="P14">
         <f t="shared" si="10"/>
-        <v>8.6178769336157687E-2</v>
+        <v>2.2850343680232124</v>
       </c>
       <c r="Q14">
         <f t="shared" si="11"/>
-        <v>3.8058220687769338E-2</v>
+        <v>1.3275773137264681</v>
       </c>
       <c r="R14">
         <f t="shared" si="12"/>
-        <v>1.489667552166239E-2</v>
+        <v>0.68362760933519762</v>
       </c>
       <c r="S14">
         <f t="shared" si="13"/>
-        <v>5.1680049602956185E-3</v>
+        <v>0.31201254180313848</v>
       </c>
       <c r="T14">
         <f t="shared" si="14"/>
-        <v>1.5890924757908068E-3</v>
+        <v>0.12621680855699746</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
@@ -8095,67 +7980,67 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.23125784272335209</v>
+        <v>0.14588725134205557</v>
       </c>
       <c r="F15">
         <f t="shared" si="15"/>
-        <v>0.42201842933332651</v>
+        <v>0.3502443856061509</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0.68258862911992535</v>
+        <v>0.74527698259666797</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.97854176760499212</v>
+        <v>1.4055843742926006</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>1.2433470596599887</v>
+        <v>2.3495723258539392</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>1.4002257546139736</v>
+        <v>3.4810751721370914</v>
       </c>
       <c r="K15">
         <f>$B$7*EXP(-(($B$11*POWER($K$3-$B$2,2)+2*$B$12*($K$3-$B$2)*(D15-$B$3)+$B$13*POWER((D15-$B$3),2))))</f>
-        <v>1.3976435898573467</v>
+        <v>4.5712047153475002</v>
       </c>
       <c r="L15">
         <f t="shared" si="6"/>
-        <v>1.2364811452863855</v>
+        <v>5.3203551781772509</v>
       </c>
       <c r="M15">
         <f t="shared" si="7"/>
-        <v>0.96955230996043973</v>
+        <v>5.488368547455182</v>
       </c>
       <c r="N15">
         <f t="shared" si="8"/>
-        <v>0.67382586617464013</v>
+        <v>5.0180917008464281</v>
       </c>
       <c r="O15">
         <f t="shared" si="9"/>
-        <v>0.41506565316337529</v>
+        <v>4.0665545802784369</v>
       </c>
       <c r="P15">
         <f t="shared" si="10"/>
-        <v>0.22660975496697083</v>
+        <v>2.9208368808112377</v>
       </c>
       <c r="Q15">
         <f t="shared" si="11"/>
-        <v>0.1096561746074757</v>
+        <v>1.8594336562442058</v>
       </c>
       <c r="R15">
         <f t="shared" si="12"/>
-        <v>4.7030572690423586E-2</v>
+        <v>1.0491721579150233</v>
       </c>
       <c r="S15">
         <f t="shared" si="13"/>
-        <v>1.7878049228504157E-2</v>
+        <v>0.52469329260434749</v>
       </c>
       <c r="T15">
         <f t="shared" si="14"/>
-        <v>6.023552171028488E-3</v>
+        <v>0.23257174613288678</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -8164,67 +8049,67 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.17489776420144915</v>
+        <v>5.3634147685512473E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="15"/>
-        <v>0.34972405263834111</v>
+        <v>0.14109171807127074</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0.61981121874806855</v>
+        <v>0.32896852382242714</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0.9736122936037459</v>
+        <v>0.67982926490091256</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>1.3555181934261455</v>
+        <v>1.245196959490126</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>1.6726972336154762</v>
+        <v>2.0214775985239202</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>1.8294561824850606</v>
+        <v>2.9086569298813192</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>1.7734517260590836</v>
+        <v>3.7094434358591566</v>
       </c>
       <c r="M16">
         <f t="shared" si="7"/>
-        <v>1.5237349051158333</v>
+        <v>4.1929307695720404</v>
       </c>
       <c r="N16">
         <f t="shared" si="8"/>
-        <v>1.1603583907123638</v>
+        <v>4.2006772638419205</v>
       </c>
       <c r="O16">
         <f t="shared" si="9"/>
-        <v>0.78319077528464642</v>
+        <v>3.7300411789799659</v>
       </c>
       <c r="P16">
         <f t="shared" si="10"/>
-        <v>0.46852812476420019</v>
+        <v>2.9356253028149766</v>
       </c>
       <c r="Q16">
         <f t="shared" si="11"/>
-        <v>0.24842566086555598</v>
+        <v>2.0477658873597759</v>
       </c>
       <c r="R16">
         <f t="shared" si="12"/>
-        <v>0.11674812853538363</v>
+        <v>1.2660552879999796</v>
       </c>
       <c r="S16">
         <f t="shared" si="13"/>
-        <v>4.8629083780685194E-2</v>
+        <v>0.69377352817005633</v>
       </c>
       <c r="T16">
         <f t="shared" si="14"/>
-        <v>1.7952913252545211E-2</v>
+        <v>0.33695776100666963</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
@@ -8233,67 +8118,67 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.10400418060104616</v>
+        <v>1.5504014880886857E-2</v>
       </c>
       <c r="F17">
         <f t="shared" si="15"/>
-        <v>0.22787586977839921</v>
+        <v>4.4690026564987169E-2</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>0.44252577124215603</v>
+        <v>0.11417466206330801</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.76167812267440405</v>
+        <v>0.25853630800847305</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>1.1619757954668821</v>
+        <v>0.51887893051046219</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>1.5711417423521625</v>
+        <v>0.92300321867033208</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>1.8828960247728272</v>
+        <v>1.455234829485218</v>
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.0335536348249823</v>
       </c>
       <c r="M17">
         <f t="shared" si="7"/>
-        <v>1.8828960247728272</v>
+        <v>2.5186676724552557</v>
       </c>
       <c r="N17">
         <f t="shared" si="8"/>
-        <v>1.5711417423521625</v>
+        <v>2.7648959369296389</v>
       </c>
       <c r="O17">
         <f t="shared" si="9"/>
-        <v>1.1619757954668821</v>
+        <v>2.6901679753478578</v>
       </c>
       <c r="P17">
         <f t="shared" si="10"/>
-        <v>0.76167812267440405</v>
+        <v>2.3199183082367485</v>
       </c>
       <c r="Q17">
         <f t="shared" si="11"/>
-        <v>0.44252577124215603</v>
+        <v>1.77320387573524</v>
       </c>
       <c r="R17">
         <f t="shared" si="12"/>
-        <v>0.22787586977839921</v>
+        <v>1.2012608885422571</v>
       </c>
       <c r="S17">
         <f t="shared" si="13"/>
-        <v>0.10400418060104616</v>
+        <v>0.72128796919875537</v>
       </c>
       <c r="T17">
         <f t="shared" si="14"/>
-        <v>4.2072269518999152E-2</v>
+        <v>0.38385988184011766</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -8302,67 +8187,67 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>4.8629083780685194E-2</v>
+        <v>3.5239174067085064E-3</v>
       </c>
       <c r="F18">
         <f t="shared" si="15"/>
-        <v>0.11674812853538363</v>
+        <v>1.1130084334582816E-2</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>0.24842566086555598</v>
+        <v>3.1157591207372888E-2</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0.46852812476420019</v>
+        <v>7.7307562583373901E-2</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>0.78319077528464642</v>
+        <v>0.17000933638568516</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>1.1603583907123638</v>
+        <v>0.33137233600988525</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>1.5237349051158333</v>
+        <v>0.57246957777502949</v>
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
-        <v>1.7734517260590836</v>
+        <v>0.87655921767824974</v>
       </c>
       <c r="M18">
         <f t="shared" si="7"/>
-        <v>1.8294561824850606</v>
+        <v>1.1896050400740046</v>
       </c>
       <c r="N18">
         <f t="shared" si="8"/>
-        <v>1.6726972336154762</v>
+        <v>1.4309254756564684</v>
       </c>
       <c r="O18">
         <f t="shared" si="9"/>
-        <v>1.3555181934261455</v>
+        <v>1.5255411322706944</v>
       </c>
       <c r="P18">
         <f t="shared" si="10"/>
-        <v>0.9736122936037459</v>
+        <v>1.4415294307715711</v>
       </c>
       <c r="Q18">
         <f t="shared" si="11"/>
-        <v>0.61981121874806855</v>
+        <v>1.2073016412882973</v>
       </c>
       <c r="R18">
         <f t="shared" si="12"/>
-        <v>0.34972405263834111</v>
+        <v>0.89619136344207206</v>
       </c>
       <c r="S18">
         <f t="shared" si="13"/>
-        <v>0.17489776420144915</v>
+        <v>0.58962841331052551</v>
       </c>
       <c r="T18">
         <f t="shared" si="14"/>
-        <v>7.7523915377628927E-2</v>
+        <v>0.34383393547487645</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -8371,67 +8256,67 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.7878049228504157E-2</v>
+        <v>6.297758700789483E-4</v>
       </c>
       <c r="F19">
         <f t="shared" si="15"/>
-        <v>4.7030572690423586E-2</v>
+        <v>2.1795410280238373E-3</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>0.1096561746074757</v>
+        <v>6.6855442322719429E-3</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0.22660975496697083</v>
+        <v>1.817611953115475E-2</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>0.41506565316337529</v>
+        <v>4.3798401397118589E-2</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>0.67382586617464013</v>
+        <v>9.3542297950475667E-2</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>0.96955230996043973</v>
+        <v>0.17707224577641034</v>
       </c>
       <c r="L19">
         <f t="shared" si="6"/>
-        <v>1.2364811452863855</v>
+        <v>0.29708836387482462</v>
       </c>
       <c r="M19">
         <f t="shared" si="7"/>
-        <v>1.3976435898573467</v>
+        <v>0.44178755157072958</v>
       </c>
       <c r="N19">
         <f t="shared" si="8"/>
-        <v>1.4002257546139736</v>
+        <v>0.58228284135665809</v>
       </c>
       <c r="O19">
         <f t="shared" si="9"/>
-        <v>1.2433470596599887</v>
+        <v>0.68021655334802078</v>
       </c>
       <c r="P19">
         <f t="shared" si="10"/>
-        <v>0.97854176760499212</v>
+        <v>0.70429253648538592</v>
       </c>
       <c r="Q19">
         <f t="shared" si="11"/>
-        <v>0.68258862911992535</v>
+        <v>0.64632605169718471</v>
       </c>
       <c r="R19">
         <f t="shared" si="12"/>
-        <v>0.42201842933332651</v>
+        <v>0.52570598665035795</v>
       </c>
       <c r="S19">
         <f t="shared" si="13"/>
-        <v>0.23125784272335209</v>
+        <v>0.37898923101223153</v>
       </c>
       <c r="T19">
         <f t="shared" si="14"/>
-        <v>0.11231925366888988</v>
+        <v>0.24216061023350285</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -8440,67 +8325,67 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>5.1680049602956185E-3</v>
+        <v>8.8496289858185822E-5</v>
       </c>
       <c r="F20">
         <f t="shared" si="15"/>
-        <v>1.489667552166239E-2</v>
+        <v>3.355910682543477E-4</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>3.8058220687769338E-2</v>
+        <v>1.1279462619336988E-3</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>8.6178769336157687E-2</v>
+        <v>3.3601534483710016E-3</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>0.17295964350348739</v>
+        <v>8.8720197117046762E-3</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>0.30766773955677734</v>
+        <v>2.0762448635760607E-2</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>0.48507827649507268</v>
+        <v>4.3065285413059998E-2</v>
       </c>
       <c r="L20">
         <f t="shared" si="6"/>
-        <v>0.6778512116083274</v>
+        <v>7.9171481970755908E-2</v>
       </c>
       <c r="M20">
         <f t="shared" si="7"/>
-        <v>0.83955589081841853</v>
+        <v>0.12900391922014873</v>
       </c>
       <c r="N20">
         <f t="shared" si="8"/>
-        <v>0.92163197897654625</v>
+        <v>0.18630723508416286</v>
       </c>
       <c r="O20">
         <f t="shared" si="9"/>
-        <v>0.89672265844928589</v>
+        <v>0.23847849511901142</v>
       </c>
       <c r="P20">
         <f t="shared" si="10"/>
-        <v>0.77330610274558287</v>
+        <v>0.27055864176280398</v>
       </c>
       <c r="Q20">
         <f t="shared" si="11"/>
-        <v>0.59106795857841332</v>
+        <v>0.27206099582171023</v>
       </c>
       <c r="R20">
         <f t="shared" si="12"/>
-        <v>0.40042029618075237</v>
+        <v>0.24247325494862482</v>
       </c>
       <c r="S20">
         <f t="shared" si="13"/>
-        <v>0.24042932306625178</v>
+        <v>0.19153762026777096</v>
       </c>
       <c r="T20">
         <f t="shared" si="14"/>
-        <v>0.12795329394670588</v>
+        <v>0.13410254435382082</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -8509,67 +8394,67 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1.1746391355695021E-3</v>
+        <v>9.7778385491245297E-6</v>
       </c>
       <c r="F21">
         <f t="shared" si="15"/>
-        <v>3.7100281115276055E-3</v>
+        <v>4.0628846261279414E-5</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>1.0385863735790963E-2</v>
+        <v>1.4963004393632633E-4</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>2.5769187527791303E-2</v>
+        <v>4.8842265814183321E-4</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>5.6669778795228387E-2</v>
+        <v>1.4130758949124278E-3</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>0.11045744533662842</v>
+        <v>3.623496606390263E-3</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>0.19082319259167649</v>
+        <v>8.2353661996391343E-3</v>
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
-        <v>0.29218640589274991</v>
+        <v>1.6589399202490553E-2</v>
       </c>
       <c r="M21">
         <f t="shared" si="7"/>
-        <v>0.39653501335800151</v>
+        <v>2.9619047362540604E-2</v>
       </c>
       <c r="N21">
         <f t="shared" si="8"/>
-        <v>0.47697515855215616</v>
+        <v>4.6870997925947157E-2</v>
       </c>
       <c r="O21">
         <f t="shared" si="9"/>
-        <v>0.50851371075689811</v>
+        <v>6.5740045426659025E-2</v>
       </c>
       <c r="P21">
         <f t="shared" si="10"/>
-        <v>0.48050981025719036</v>
+        <v>8.172378739548046E-2</v>
       </c>
       <c r="Q21">
         <f t="shared" si="11"/>
-        <v>0.4024338804294324</v>
+        <v>9.0045011220651991E-2</v>
       </c>
       <c r="R21">
         <f t="shared" si="12"/>
-        <v>0.29873045448069069</v>
+        <v>8.7935353443416173E-2</v>
       </c>
       <c r="S21">
         <f t="shared" si="13"/>
-        <v>0.19654280443684183</v>
+        <v>7.6113213150776099E-2</v>
       </c>
       <c r="T21">
         <f t="shared" si="14"/>
-        <v>0.11461131182495882</v>
+        <v>5.8391453332660326E-2</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -8578,67 +8463,67 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>2.0992529002631608E-4</v>
+        <v>8.4945311179421455E-7</v>
       </c>
       <c r="F22">
         <f t="shared" si="15"/>
-        <v>7.2651367600794572E-4</v>
+        <v>3.8675624711434568E-6</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>2.2285147440906476E-3</v>
+        <v>1.5607306130053092E-5</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>6.0587065103849171E-3</v>
+        <v>5.5822752426367145E-5</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>1.4599467132372864E-2</v>
+        <v>1.769649384129791E-4</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>3.1180765983491891E-2</v>
+        <v>4.972283679339697E-4</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>5.9024081925470109E-2</v>
+        <v>1.238275421385571E-3</v>
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
-        <v>9.9029454624941546E-2</v>
+        <v>2.7331992507442396E-3</v>
       </c>
       <c r="M22">
         <f t="shared" si="7"/>
-        <v>0.14726251719024319</v>
+        <v>5.3470964645853988E-3</v>
       </c>
       <c r="N22">
         <f t="shared" si="8"/>
-        <v>0.19409428045221938</v>
+        <v>9.2716585834447772E-3</v>
       </c>
       <c r="O22">
         <f t="shared" si="9"/>
-        <v>0.22673885111600692</v>
+        <v>1.4249168709799771E-2</v>
       </c>
       <c r="P22">
         <f t="shared" si="10"/>
-        <v>0.23476417882846198</v>
+        <v>1.9409498393108883E-2</v>
       </c>
       <c r="Q22">
         <f t="shared" si="11"/>
-        <v>0.21544201723239492</v>
+        <v>2.3433209810526903E-2</v>
       </c>
       <c r="R22">
         <f t="shared" si="12"/>
-        <v>0.17523532888345267</v>
+        <v>2.5075057403158983E-2</v>
       </c>
       <c r="S22">
         <f t="shared" si="13"/>
-        <v>0.12632974367074384</v>
+        <v>2.3781802961377992E-2</v>
       </c>
       <c r="T22">
         <f t="shared" si="14"/>
-        <v>8.0720203411167618E-2</v>
+        <v>1.9991266234901019E-2</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -8647,67 +8532,67 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>2.9498763286061941E-5</v>
+        <v>5.8024941682565661E-8</v>
       </c>
       <c r="F23">
         <f t="shared" si="15"/>
-        <v>1.1186368941811591E-4</v>
+        <v>2.894802482022509E-7</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>3.7598208731123292E-4</v>
+        <v>1.2800173188245975E-6</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>1.1200511494570005E-3</v>
+        <v>5.0165534159845857E-6</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>2.9573399039015589E-3</v>
+        <v>1.7425599245885542E-5</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>6.9208162119202025E-3</v>
+        <v>5.3649130615695615E-5</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>1.4355095137686666E-2</v>
+        <v>1.4639638107843278E-4</v>
       </c>
       <c r="L23">
         <f t="shared" si="6"/>
-        <v>2.6390493990251968E-2</v>
+        <v>3.5407126232710743E-4</v>
       </c>
       <c r="M23">
         <f t="shared" si="7"/>
-        <v>4.300130640671624E-2</v>
+        <v>7.5900336846705045E-4</v>
       </c>
       <c r="N23">
         <f t="shared" si="8"/>
-        <v>6.2102411694720958E-2</v>
+        <v>1.4420801970035388E-3</v>
       </c>
       <c r="O23">
         <f t="shared" si="9"/>
-        <v>7.9492831706337141E-2</v>
+        <v>2.4284424090419031E-3</v>
       </c>
       <c r="P23">
         <f t="shared" si="10"/>
-        <v>9.0186213920934649E-2</v>
+        <v>3.62459001583296E-3</v>
       </c>
       <c r="Q23">
         <f t="shared" si="11"/>
-        <v>9.0686998607236738E-2</v>
+        <v>4.794934255667474E-3</v>
       </c>
       <c r="R23">
         <f t="shared" si="12"/>
-        <v>8.0824418316208277E-2</v>
+        <v>5.622107036008385E-3</v>
       </c>
       <c r="S23">
         <f t="shared" si="13"/>
-        <v>6.3845873422590321E-2</v>
+        <v>5.8426281681650694E-3</v>
       </c>
       <c r="T23">
         <f t="shared" si="14"/>
-        <v>4.4700848117940277E-2</v>
+        <v>5.3815833679767382E-3</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -8716,67 +8601,67 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>3.2592795163748431E-6</v>
+        <v>3.1165117238965698E-9</v>
       </c>
       <c r="F24">
         <f t="shared" si="15"/>
-        <v>1.3542948753759805E-5</v>
+        <v>1.7036457201392477E-8</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>4.9876681312108776E-5</v>
+        <v>8.2543426648056554E-8</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>1.6280755271394438E-4</v>
+        <v>3.5446910360442836E-7</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>4.7102529830414259E-4</v>
+        <v>1.3491709013829742E-6</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>1.2078322021300877E-3</v>
+        <v>4.5514338011210946E-6</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>2.7451220665463782E-3</v>
+        <v>1.3608873615457382E-5</v>
       </c>
       <c r="L24">
         <f t="shared" si="6"/>
-        <v>5.5297997341635175E-3</v>
+        <v>3.6065239200463549E-5</v>
       </c>
       <c r="M24">
         <f t="shared" si="7"/>
-        <v>9.8730157875135342E-3</v>
+        <v>8.4712624877651804E-5</v>
       </c>
       <c r="N24">
         <f t="shared" si="8"/>
-        <v>1.5623665975315719E-2</v>
+        <v>1.7636002288290659E-4</v>
       </c>
       <c r="O24">
         <f t="shared" si="9"/>
-        <v>2.1913348475553009E-2</v>
+        <v>3.2542044896240109E-4</v>
       </c>
       <c r="P24">
         <f t="shared" si="10"/>
-        <v>2.7241262465160152E-2</v>
+        <v>5.3220900563470403E-4</v>
       </c>
       <c r="Q24">
         <f t="shared" si="11"/>
-        <v>3.001500374021733E-2</v>
+        <v>7.7145799463391421E-4</v>
       </c>
       <c r="R24">
         <f t="shared" si="12"/>
-        <v>2.9311784481138723E-2</v>
+        <v>9.9114007103421426E-4</v>
       </c>
       <c r="S24">
         <f t="shared" si="13"/>
-        <v>2.5371071050258702E-2</v>
+        <v>1.1286270922510099E-3</v>
       </c>
       <c r="T24">
         <f t="shared" si="14"/>
-        <v>1.9463817777553443E-2</v>
+        <v>1.1390914533154456E-3</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
